--- a/forms/app/quality_monitoring.xlsx
+++ b/forms/app/quality_monitoring.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="312">
   <si>
     <t>type</t>
   </si>
@@ -1005,6 +1005,9 @@
     <t>default_language</t>
   </si>
   <si>
+    <t>style</t>
+  </si>
+  <si>
     <t>quality_monitoring</t>
   </si>
   <si>
@@ -1012,6 +1015,9 @@
   </si>
   <si>
     <t>English (en)</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
 </sst>
 </file>
@@ -30597,7 +30603,9 @@
       <c r="E1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="2"/>
+      <c r="F1" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -30624,19 +30632,21 @@
         <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C2" s="17">
         <f>NOW()</f>
-        <v>44732.48535</v>
+        <v>44741.60844</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="3" t="s">
+        <v>311</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>

--- a/forms/app/quality_monitoring.xlsx
+++ b/forms/app/quality_monitoring.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="326">
   <si>
     <t>type</t>
   </si>
@@ -864,16 +864,29 @@
     <t>field-list summary</t>
   </si>
   <si>
+    <t>r_chw_info_title</t>
+  </si>
+  <si>
+    <t>CHW Details &lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h2 blue</t>
+  </si>
+  <si>
     <t>r_chw_info</t>
   </si>
   <si>
-    <t>**${chw_name}** ID: ${chw_id}</t>
+    <t>&lt;div style="text-align:center;"&gt;&lt;span&gt;**CHV name:** ${chw_name}&lt;/span&gt; 
+&lt;span&gt;**CHV ID:** ${chw_id}&lt;/span&gt;&lt;/div&gt;</t>
   </si>
   <si>
     <t>r_improvement_areas_title</t>
   </si>
   <si>
     <t>Areas of Improvement &lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>h2 red</t>
   </si>
   <si>
     <t>r_improvement_areas</t>
@@ -904,6 +917,36 @@
   </si>
   <si>
     <t>selected(${follow_up_again}, "yes")</t>
+  </si>
+  <si>
+    <t>. &gt; today()</t>
+  </si>
+  <si>
+    <t>Date cannot be a past date or today</t>
+  </si>
+  <si>
+    <t>c_formatted_follow_up_date</t>
+  </si>
+  <si>
+    <t>format-date(${next_follow_up_date}, '%a %e %b %Y')</t>
+  </si>
+  <si>
+    <t>r_next_follow_up</t>
+  </si>
+  <si>
+    <t>Next follow up on **_${c_formatted_follow_up_date}_**.</t>
+  </si>
+  <si>
+    <t>c_formatted_task_date</t>
+  </si>
+  <si>
+    <t>format-date(date(decimal-date-time(${next_follow_up_date}) - 2), '%a %e %b %Y')</t>
+  </si>
+  <si>
+    <t>r_followup_note</t>
+  </si>
+  <si>
+    <t>A quality monitoring follow up task for ${chw_name} will appear on *_${c_formatted_task_date}_*.</t>
   </si>
   <si>
     <t>list_name</t>
@@ -1099,13 +1142,13 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1345,7 +1388,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="10" width="18.0"/>
-    <col customWidth="1" min="11" max="11" width="72.25"/>
+    <col customWidth="1" min="11" max="11" width="71.75"/>
     <col customWidth="1" min="12" max="26" width="18.0"/>
   </cols>
   <sheetData>
@@ -5892,75 +5935,79 @@
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-      <c r="R130" s="10"/>
-      <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="10"/>
-      <c r="V130" s="10"/>
-      <c r="W130" s="10"/>
-      <c r="X130" s="10"/>
-      <c r="Y130" s="10"/>
-      <c r="Z130" s="10"/>
+      <c r="G130" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
+      <c r="A131" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B131" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C131" s="3" t="s">
+      <c r="B131" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
+      <c r="C131" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="10"/>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+      <c r="W131" s="10"/>
+      <c r="X131" s="10"/>
+      <c r="Y131" s="10"/>
+      <c r="Z131" s="10"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
+      <c r="G132" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -5982,55 +6029,55 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>266</v>
+      <c r="B133" s="3" t="s">
+        <v>268</v>
       </c>
-      <c r="C133" s="9" t="s">
+      <c r="C133" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+      <c r="G134" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="10"/>
-      <c r="K133" s="10"/>
-      <c r="L133" s="10"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="10"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-      <c r="R133" s="10"/>
-      <c r="S133" s="10"/>
-      <c r="T133" s="10"/>
-      <c r="U133" s="10"/>
-      <c r="V133" s="10"/>
-      <c r="W133" s="10"/>
-      <c r="X133" s="10"/>
-      <c r="Y133" s="10"/>
-      <c r="Z133" s="10"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B134" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="D134" s="10"/>
-      <c r="E134" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F134" s="10"/>
-      <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
@@ -6052,87 +6099,105 @@
       <c r="Z134" s="10"/>
     </row>
     <row r="135">
-      <c r="A135" s="11" t="s">
-        <v>270</v>
+      <c r="A135" s="9" t="s">
+        <v>54</v>
       </c>
-      <c r="B135" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="C135" s="3" t="s">
+      <c r="B135" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="D135" s="4"/>
-      <c r="E135" s="3" t="s">
+      <c r="C135" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" s="10"/>
+      <c r="E135" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>273</v>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="12" t="s">
+        <v>274</v>
       </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
-      <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
-      <c r="M135" s="4"/>
-      <c r="N135" s="4"/>
-      <c r="O135" s="4"/>
-      <c r="P135" s="4"/>
-      <c r="Q135" s="4"/>
-      <c r="R135" s="4"/>
-      <c r="S135" s="4"/>
-      <c r="T135" s="4"/>
-      <c r="U135" s="4"/>
-      <c r="V135" s="4"/>
-      <c r="W135" s="4"/>
-      <c r="X135" s="4"/>
-      <c r="Y135" s="4"/>
-      <c r="Z135" s="4"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="9" t="s">
-        <v>35</v>
+      <c r="B136" s="12" t="s">
+        <v>275</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>257</v>
+      <c r="C136" s="3" t="s">
+        <v>276</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10"/>
-      <c r="F136" s="10"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="10"/>
-      <c r="K136" s="10"/>
-      <c r="L136" s="10"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="10"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
-      <c r="Q136" s="10"/>
-      <c r="R136" s="10"/>
-      <c r="S136" s="10"/>
-      <c r="T136" s="10"/>
-      <c r="U136" s="10"/>
-      <c r="V136" s="10"/>
-      <c r="W136" s="10"/>
-      <c r="X136" s="10"/>
-      <c r="Y136" s="10"/>
-      <c r="Z136" s="10"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
     </row>
     <row r="137">
-      <c r="A137" s="4"/>
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="A137" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>252</v>
+      </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
-      <c r="F137" s="4"/>
+      <c r="F137" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="4"/>
+      <c r="K137" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -6150,12 +6215,20 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="4"/>
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="A138" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
-      <c r="F138" s="4"/>
+      <c r="F138" s="3" t="s">
+        <v>277</v>
+      </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
@@ -6178,88 +6251,106 @@
       <c r="Z138" s="4"/>
     </row>
     <row r="139">
-      <c r="A139" s="4"/>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
+      <c r="A139" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
     </row>
     <row r="140">
-      <c r="A140" s="4"/>
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
-      <c r="F140" s="4"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
-      <c r="M140" s="4"/>
-      <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
-      <c r="P140" s="4"/>
-      <c r="Q140" s="4"/>
-      <c r="R140" s="4"/>
-      <c r="S140" s="4"/>
-      <c r="T140" s="4"/>
-      <c r="U140" s="4"/>
-      <c r="V140" s="4"/>
-      <c r="W140" s="4"/>
-      <c r="X140" s="4"/>
-      <c r="Y140" s="4"/>
-      <c r="Z140" s="4"/>
+      <c r="A140" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="10"/>
+      <c r="Z140" s="10"/>
     </row>
     <row r="141">
-      <c r="A141" s="4"/>
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
+      <c r="A141" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="10"/>
+      <c r="Z141" s="10"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -30364,7 +30455,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -30400,142 +30491,142 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="16" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="16" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="16" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B9" s="16">
         <v>0.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B10" s="16">
         <v>1.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B11" s="16">
         <v>2.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B12" s="16">
         <v>3.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B13" s="16">
         <v>5.0</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15">
@@ -30543,13 +30634,13 @@
         <v>222</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
     </row>
     <row r="16">
@@ -30557,13 +30648,13 @@
         <v>222</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -30589,22 +30680,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -30632,20 +30723,20 @@
         <v>212</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="C2" s="17">
         <f>NOW()</f>
-        <v>44741.60844</v>
+        <v>44746.42615</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>

--- a/forms/app/quality_monitoring.xlsx
+++ b/forms/app/quality_monitoring.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="324">
   <si>
     <t>type</t>
   </si>
@@ -81,27 +81,6 @@
     <t>task_id</t>
   </si>
   <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>Patient UUID</t>
-  </si>
-  <si>
-    <t>../contact/_id</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>../contact/patient_id</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -111,10 +90,22 @@
     <t>_id</t>
   </si>
   <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
     <t>select-contact type-person</t>
   </si>
   <si>
+    <t>patient_id</t>
+  </si>
+  <si>
     <t>Medic ID</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>Patient Name</t>
@@ -123,13 +114,16 @@
     <t>end group</t>
   </si>
   <si>
+    <t>calculate</t>
+  </si>
+  <si>
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
+    <t>chw_id</t>
   </si>
   <si>
-    <t>chw_id</t>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>chw_name</t>
@@ -1582,14 +1576,12 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1597,9 +1589,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -1618,24 +1608,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -1654,16 +1644,20 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1686,19 +1680,19 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -1722,13 +1716,13 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -1758,20 +1752,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1794,7 +1782,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1824,9 +1812,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -1835,7 +1825,9 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -1854,10 +1846,10 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1868,7 +1860,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1888,10 +1880,10 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1902,7 +1894,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1922,10 +1914,10 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1936,7 +1928,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
@@ -1955,23 +1947,17 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -1989,13 +1975,23 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -2018,22 +2014,20 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -2056,20 +2050,16 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -2091,17 +2081,13 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -2123,13 +2109,23 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -2152,22 +2148,20 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -2190,18 +2184,20 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="E24" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2226,19 +2222,19 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
@@ -2264,20 +2260,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2301,12 +2291,8 @@
       <c r="Z26" s="4"/>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -2333,13 +2319,23 @@
       <c r="Z27" s="4"/>
     </row>
     <row r="28">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -2362,22 +2358,22 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="E29" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -2400,20 +2396,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2437,12 +2427,8 @@
       <c r="Z30" s="4"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -2469,13 +2455,23 @@
       <c r="Z31" s="4"/>
     </row>
     <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -2498,22 +2494,22 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
-      <c r="E33" s="4"/>
+      <c r="E33" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -2536,20 +2532,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2573,12 +2563,8 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>68</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2605,13 +2591,23 @@
       <c r="Z35" s="4"/>
     </row>
     <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
+      <c r="A36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -2634,22 +2630,22 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>17</v>
+      <c r="E37" s="3" t="s">
+        <v>56</v>
       </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -2672,20 +2668,14 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2709,12 +2699,8 @@
       <c r="Z38" s="4"/>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2741,13 +2727,23 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="A40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
+      <c r="G40" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -2770,22 +2766,22 @@
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -2808,20 +2804,14 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -2845,12 +2835,8 @@
       <c r="Z42" s="4"/>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>80</v>
-      </c>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2877,13 +2863,23 @@
       <c r="Z43" s="4"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
@@ -2906,22 +2902,22 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F45" s="4"/>
-      <c r="G45" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
@@ -2944,20 +2940,18 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -2982,18 +2976,20 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -3018,19 +3014,19 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -3056,19 +3052,19 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -3094,19 +3090,19 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -3132,20 +3128,14 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -3169,12 +3159,8 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -3201,13 +3187,23 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
+      <c r="G53" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
@@ -3230,22 +3226,22 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -3268,20 +3264,14 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3305,12 +3295,8 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -3337,13 +3323,23 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="A57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
+      <c r="G57" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -3366,22 +3362,22 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -3404,20 +3400,14 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -3441,12 +3431,8 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>113</v>
-      </c>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
@@ -3473,13 +3459,23 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="A61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -3502,22 +3498,22 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F62" s="4"/>
-      <c r="G62" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -3540,20 +3536,18 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -3578,17 +3572,13 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -3613,12 +3603,8 @@
       <c r="Z64" s="4"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>119</v>
-      </c>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -3645,13 +3631,23 @@
       <c r="Z65" s="4"/>
     </row>
     <row r="66">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="A66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
@@ -3674,22 +3670,22 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -3712,19 +3708,19 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -3750,19 +3746,19 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -3788,19 +3784,19 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -3826,20 +3822,14 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -3863,12 +3853,8 @@
       <c r="Z71" s="4"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>128</v>
-      </c>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -3895,13 +3881,23 @@
       <c r="Z72" s="4"/>
     </row>
     <row r="73">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="A73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
+      <c r="G73" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
@@ -3924,22 +3920,22 @@
     </row>
     <row r="74">
       <c r="A74" s="3" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F74" s="4"/>
-      <c r="G74" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -3962,19 +3958,19 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -4000,20 +3996,14 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -4037,12 +4027,8 @@
       <c r="Z76" s="4"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>144</v>
-      </c>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4069,13 +4055,23 @@
       <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="A78" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
+      <c r="G78" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
@@ -4098,22 +4094,22 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
@@ -4136,20 +4132,14 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -4173,12 +4163,8 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>153</v>
-      </c>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -4205,13 +4191,23 @@
       <c r="Z81" s="4"/>
     </row>
     <row r="82">
-      <c r="A82" s="4"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="A82" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -4234,22 +4230,22 @@
     </row>
     <row r="83">
       <c r="A83" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
-      <c r="E83" s="4"/>
+      <c r="E83" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
@@ -4272,19 +4268,19 @@
     </row>
     <row r="84">
       <c r="A84" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -4310,20 +4306,18 @@
     </row>
     <row r="85">
       <c r="A85" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -4348,16 +4342,16 @@
     </row>
     <row r="86">
       <c r="A86" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4384,18 +4378,20 @@
     </row>
     <row r="87">
       <c r="A87" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
-      <c r="E87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -4420,21 +4416,23 @@
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
-      <c r="F88" s="4"/>
+      <c r="F88" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -4458,23 +4456,19 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>180</v>
-      </c>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -4498,18 +4492,20 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -4534,21 +4530,23 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F91" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
@@ -4572,23 +4570,19 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
-      <c r="E92" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>186</v>
-      </c>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
@@ -4612,18 +4606,20 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -4648,21 +4644,23 @@
     </row>
     <row r="94">
       <c r="A94" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
@@ -4686,23 +4684,19 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>191</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>192</v>
-      </c>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
@@ -4726,18 +4720,20 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="E96" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -4762,21 +4758,23 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F97" s="4"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
@@ -4800,23 +4798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>197</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
@@ -4840,18 +4834,20 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
-      <c r="E99" s="4"/>
+      <c r="E99" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -4876,21 +4872,23 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F100" s="4"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
@@ -4914,23 +4912,15 @@
     </row>
     <row r="101">
       <c r="A101" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>204</v>
-      </c>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
@@ -4953,12 +4943,8 @@
       <c r="Z101" s="4"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -4985,13 +4971,23 @@
       <c r="Z102" s="4"/>
     </row>
     <row r="103">
-      <c r="A103" s="4"/>
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="A103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
+      <c r="G103" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -5014,22 +5010,22 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F104" s="4"/>
-      <c r="G104" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G104" s="4"/>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -5052,20 +5048,14 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -5089,12 +5079,8 @@
       <c r="Z105" s="4"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>205</v>
-      </c>
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -5121,13 +5107,23 @@
       <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="4"/>
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="A107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="4"/>
+      <c r="G107" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
@@ -5150,22 +5146,20 @@
     </row>
     <row r="108">
       <c r="A108" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -5188,18 +5182,20 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
-      <c r="E109" s="4"/>
+      <c r="E109" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -5224,21 +5220,23 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="3" t="s">
+        <v>223</v>
+      </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
@@ -5262,23 +5260,15 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
-        <v>221</v>
+        <v>32</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>225</v>
-      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
@@ -5301,12 +5291,8 @@
       <c r="Z111" s="4"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>211</v>
-      </c>
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
@@ -5333,13 +5319,23 @@
       <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="4"/>
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="A113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>226</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
+      <c r="G113" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
@@ -5362,22 +5358,20 @@
     </row>
     <row r="114">
       <c r="A114" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="G114" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -5400,18 +5394,20 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
-      <c r="E115" s="4"/>
+      <c r="E115" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -5436,21 +5432,21 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="3"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
@@ -5474,19 +5470,19 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="4"/>
@@ -5512,21 +5508,15 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F118" s="3"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
@@ -5549,12 +5539,8 @@
       <c r="Z118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>226</v>
-      </c>
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
@@ -5581,13 +5567,23 @@
       <c r="Z119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="4"/>
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="A120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="4"/>
+      <c r="G120" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -5610,22 +5606,22 @@
     </row>
     <row r="121">
       <c r="A121" s="3" t="s">
-        <v>13</v>
+        <v>230</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
-      <c r="E121" s="4"/>
+      <c r="E121" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="F121" s="4"/>
-      <c r="G121" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -5648,20 +5644,18 @@
     </row>
     <row r="122">
       <c r="A122" s="3" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>58</v>
-      </c>
+      <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -5686,17 +5680,13 @@
     </row>
     <row r="123">
       <c r="A123" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -5721,12 +5711,8 @@
       <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
@@ -5753,261 +5739,267 @@
       <c r="Z124" s="4"/>
     </row>
     <row r="125">
-      <c r="A125" s="4"/>
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="5" t="s">
-        <v>22</v>
+      <c r="A125" s="5" t="s">
+        <v>33</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B125" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6"/>
+      <c r="H125" s="6"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
+      <c r="N125" s="6"/>
+      <c r="O125" s="6"/>
+      <c r="P125" s="6"/>
+      <c r="Q125" s="6"/>
+      <c r="R125" s="6"/>
+      <c r="S125" s="6"/>
+      <c r="T125" s="6"/>
+      <c r="U125" s="6"/>
+      <c r="V125" s="6"/>
+      <c r="W125" s="6"/>
+      <c r="X125" s="6"/>
+      <c r="Y125" s="6"/>
+      <c r="Z125" s="6"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>252</v>
+      <c r="C126" s="7" t="s">
+        <v>250</v>
       </c>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="5" t="s">
+      <c r="D126" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="6"/>
-      <c r="S126" s="6"/>
-      <c r="T126" s="6"/>
-      <c r="U126" s="6"/>
-      <c r="V126" s="6"/>
-      <c r="W126" s="6"/>
-      <c r="X126" s="6"/>
-      <c r="Y126" s="6"/>
-      <c r="Z126" s="6"/>
+      <c r="L126" s="7"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="8"/>
+      <c r="Z126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="7" t="s">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>252</v>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>13</v>
       </c>
-      <c r="D127" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="7" t="s">
+      <c r="B128" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="L127" s="7"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
-      <c r="S127" s="8"/>
-      <c r="T127" s="8"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="8"/>
-      <c r="X127" s="8"/>
-      <c r="Y127" s="8"/>
-      <c r="Z127" s="8"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="4"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="3" t="s">
+      <c r="C128" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+      <c r="W128" s="10"/>
+      <c r="X128" s="10"/>
+      <c r="Y128" s="10"/>
+      <c r="Z128" s="10"/>
     </row>
     <row r="129">
       <c r="A129" s="9" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D129" s="10"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="10"/>
-      <c r="U129" s="10"/>
-      <c r="V129" s="10"/>
-      <c r="W129" s="10"/>
-      <c r="X129" s="10"/>
-      <c r="Y129" s="10"/>
-      <c r="Z129" s="10"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C130" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D130" s="10"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
-      <c r="G130" s="9" t="s">
-        <v>262</v>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+      <c r="W130" s="10"/>
+      <c r="X130" s="10"/>
+      <c r="Y130" s="10"/>
+      <c r="Z130" s="10"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="s">
+        <v>42</v>
       </c>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C131" s="9" t="s">
+      <c r="C131" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
-      <c r="X131" s="10"/>
-      <c r="Y131" s="10"/>
-      <c r="Z131" s="10"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
-      <c r="G132" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="G132" s="4"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -6029,55 +6021,57 @@
       <c r="Z132" s="4"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>44</v>
+      <c r="A133" s="9" t="s">
+        <v>42</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+      <c r="W133" s="10"/>
+      <c r="X133" s="10"/>
+      <c r="Y133" s="10"/>
+      <c r="Z133" s="10"/>
     </row>
     <row r="134">
       <c r="A134" s="9" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="C134" s="13" t="s">
         <v>271</v>
       </c>
       <c r="D134" s="10"/>
-      <c r="E134" s="10"/>
+      <c r="E134" s="11" t="s">
+        <v>56</v>
+      </c>
       <c r="F134" s="10"/>
-      <c r="G134" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
       <c r="J134" s="10"/>
@@ -6099,67 +6093,69 @@
       <c r="Z134" s="10"/>
     </row>
     <row r="135">
-      <c r="A135" s="9" t="s">
-        <v>54</v>
+      <c r="A135" s="12" t="s">
+        <v>272</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="D135" s="10"/>
-      <c r="E135" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F135" s="10"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="10"/>
-      <c r="K135" s="10"/>
-      <c r="L135" s="10"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="10"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-      <c r="R135" s="10"/>
-      <c r="S135" s="10"/>
-      <c r="T135" s="10"/>
-      <c r="U135" s="10"/>
-      <c r="V135" s="10"/>
-      <c r="W135" s="10"/>
-      <c r="X135" s="10"/>
-      <c r="Y135" s="10"/>
-      <c r="Z135" s="10"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="12" t="s">
+      <c r="C135" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="D135" s="4"/>
+      <c r="E135" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F135" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="G135" s="4"/>
+      <c r="H135" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D136" s="4"/>
-      <c r="E136" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="I135" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G136" s="4"/>
-      <c r="H136" s="3" t="s">
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="4"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="C136" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J136" s="4"/>
-      <c r="K136" s="4"/>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
@@ -6178,26 +6174,24 @@
     </row>
     <row r="137">
       <c r="A137" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>280</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
-      <c r="K137" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="K137" s="4"/>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
@@ -6215,50 +6209,50 @@
       <c r="Z137" s="4"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="s">
-        <v>44</v>
+      <c r="A138" s="9" t="s">
+        <v>33</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
-      <c r="F138" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
-      <c r="M138" s="4"/>
-      <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="4"/>
-      <c r="Q138" s="4"/>
-      <c r="R138" s="4"/>
-      <c r="S138" s="4"/>
-      <c r="T138" s="4"/>
-      <c r="U138" s="4"/>
-      <c r="V138" s="4"/>
-      <c r="W138" s="4"/>
-      <c r="X138" s="4"/>
-      <c r="Y138" s="4"/>
-      <c r="Z138" s="4"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="10"/>
+      <c r="Z138" s="10"/>
     </row>
     <row r="139">
       <c r="A139" s="9" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C139" s="9" t="s">
-        <v>252</v>
+      <c r="C139" s="13" t="s">
+        <v>285</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="10"/>
@@ -6267,9 +6261,7 @@
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
       <c r="J139" s="10"/>
-      <c r="K139" s="13" t="s">
-        <v>285</v>
-      </c>
+      <c r="K139" s="10"/>
       <c r="L139" s="10"/>
       <c r="M139" s="10"/>
       <c r="N139" s="10"/>
@@ -6288,14 +6280,12 @@
     </row>
     <row r="140">
       <c r="A140" s="9" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
-      <c r="C140" s="13" t="s">
-        <v>287</v>
-      </c>
+      <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
@@ -6321,36 +6311,32 @@
       <c r="Z140" s="10"/>
     </row>
     <row r="141">
-      <c r="A141" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
-      <c r="T141" s="10"/>
-      <c r="U141" s="10"/>
-      <c r="V141" s="10"/>
-      <c r="W141" s="10"/>
-      <c r="X141" s="10"/>
-      <c r="Y141" s="10"/>
-      <c r="Z141" s="10"/>
+      <c r="A141" s="4"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4"/>
@@ -30404,34 +30390,6 @@
       <c r="Y1000" s="4"/>
       <c r="Z1000" s="4"/>
     </row>
-    <row r="1001">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
-      <c r="K1001" s="4"/>
-      <c r="L1001" s="4"/>
-      <c r="M1001" s="4"/>
-      <c r="N1001" s="4"/>
-      <c r="O1001" s="4"/>
-      <c r="P1001" s="4"/>
-      <c r="Q1001" s="4"/>
-      <c r="R1001" s="4"/>
-      <c r="S1001" s="4"/>
-      <c r="T1001" s="4"/>
-      <c r="U1001" s="4"/>
-      <c r="V1001" s="4"/>
-      <c r="W1001" s="4"/>
-      <c r="X1001" s="4"/>
-      <c r="Y1001" s="4"/>
-      <c r="Z1001" s="4"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30455,7 +30413,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
@@ -30491,170 +30449,170 @@
     </row>
     <row r="2">
       <c r="A2" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>58</v>
+    </row>
+    <row r="3">
+      <c r="A3" s="16" t="s">
+        <v>287</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="16" t="s">
+      <c r="D3" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B3" s="16" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="16" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="B7" s="16" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
+      <c r="C7" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="D7" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>298</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B9" s="16">
         <v>0.0</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="16">
         <v>1.0</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B11" s="16">
         <v>2.0</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B12" s="16">
         <v>3.0</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B13" s="16">
         <v>5.0</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="C15" s="16" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B15" s="16" t="s">
+      <c r="D15" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="16" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="C16" s="16" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="D16" s="16" t="s">
         <v>313</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -30680,22 +30638,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -30720,23 +30678,23 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C2" s="17">
         <f>NOW()</f>
-        <v>44746.42615</v>
+        <v>44748.70418</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
